--- a/table_data.xlsx
+++ b/table_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott/Documents/GitHub/deep-learning-ssh-mapping-JAMES-paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DF48F1-8987-9D4F-9FD2-B2083B4680D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767260F-6036-7D4E-B640-A07F080F1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="2300" windowWidth="17940" windowHeight="17440" xr2:uid="{4A3F7AC6-858F-544E-BA58-8BE98BE7F603}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Method</t>
   </si>
@@ -77,10 +77,7 @@
     <t>ConvLSTM SSH</t>
   </si>
   <si>
-    <t>ConvLSTM SSH+SST (Gulf Stream)</t>
-  </si>
-  <si>
-    <t>ConvLSTM SSH+SST (Global)</t>
+    <t>ConvLSTM SSH+SST</t>
   </si>
 </sst>
 </file>
@@ -139,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EE7D8F-318C-E34C-AF45-8C41403A1593}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,7 +484,7 @@
         <v>149</v>
       </c>
       <c r="G2" s="1">
-        <v>0.21299999999999999</v>
+        <v>0.34899999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -510,7 +507,7 @@
         <v>131</v>
       </c>
       <c r="G3" s="1">
-        <v>0.20799999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -533,7 +530,7 @@
         <v>139</v>
       </c>
       <c r="G4" s="1">
-        <v>0.20300000000000001</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -556,7 +553,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="1">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -579,7 +576,7 @@
         <v>107</v>
       </c>
       <c r="G6" s="1">
-        <v>0.188</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -602,10 +599,10 @@
         <v>115</v>
       </c>
       <c r="G7" s="1">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -625,30 +622,7 @@
         <v>104</v>
       </c>
       <c r="G8" s="1">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F9" s="1">
-        <v>115</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.19500000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
   </sheetData>
